--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github_LNIS/ChemAirU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82DDDBDF-5600-45CC-879E-025473E7EE7C}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847D57A3-F5AC-4EBB-8CAA-BAB4A23E6E93}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,10 +246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +563,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>28.366666666666667</v>
+        <v>33.65</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -867,13 +863,19 @@
       <c r="C16">
         <v>28</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>errE.orB</v>
+        <v>317</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>errE.orB</v>
+        <v>5h 17min</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github_LNIS/ChemAirU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847D57A3-F5AC-4EBB-8CAA-BAB4A23E6E93}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370A61C0-C3B7-47D6-8CA0-A5A459B05E80}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,8 +519,8 @@
   <dimension ref="A1:M1999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -563,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>33.65</v>
+        <v>34.4</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -878,7 +882,7 @@
         <v>5h 17min</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G17" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -888,17 +892,32 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G18" s="5" t="str">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>45566</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>45</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve"> 45min</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -908,7 +927,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G20" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -918,7 +937,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -928,7 +947,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G22" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -938,7 +957,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G23" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -948,7 +967,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G24" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -958,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G25" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -968,7 +987,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G26" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -978,7 +997,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G27" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -988,7 +1007,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G28" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -998,7 +1017,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G29" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1008,7 +1027,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G30" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1018,7 +1037,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G31" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1028,7 +1047,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G32" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github_LNIS/ChemAirU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370A61C0-C3B7-47D6-8CA0-A5A459B05E80}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD2CF33-9B18-4FF2-8D28-74391A256795}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>34.4</v>
+        <v>39.233333333333334</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -918,13 +918,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G19" s="5" t="str">
+      <c r="A19" s="12">
+        <v>45567</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>290</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4h 50min</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github_LNIS/ChemAirU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD2CF33-9B18-4FF2-8D28-74391A256795}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D9858A-37D6-47CF-82BD-4C9DF36D6E2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -953,13 +953,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>45580</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github_LNIS/ChemAirU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E5647D-A0EE-472A-962F-B4BC243B3FD9}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9433B25A-64E1-480C-A24F-79F73C4ACE44}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:F22"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>39.983333333333334</v>
+        <v>43.4</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G20" si="0" xml:space="preserve"> IF(B4="","", IF(B4&gt;=24,"&gt;24",IF(C4&gt;59,"&gt;60", IF(F4&gt;59,"&gt;60", IF(E4&lt;B4,"errE.orB", IF(C4="","",IF(E4="","",IF(F4="","",(E4-B4)*60+F4-C4))))))))</f>
+        <f t="shared" ref="G4:G19" si="0" xml:space="preserve"> IF(B4="","", IF(B4&gt;=24,"&gt;24",IF(C4&gt;59,"&gt;60", IF(F4&gt;59,"&gt;60", IF(E4&lt;B4,"errE.orB", IF(C4="","",IF(E4="","",IF(F4="","",(E4-B4)*60+F4-C4))))))))</f>
         <v>180</v>
       </c>
       <c r="H4" s="13" t="str">
@@ -818,7 +818,7 @@
         <v>65</v>
       </c>
       <c r="H13" s="13" t="str">
-        <f t="shared" ref="H12:H24" si="2">IFERROR( IF(G13="","",CONCATENATE(       IF(INT(G13/60)=0,          "", CONCATENATE(INT(G13/60),"h") ), " ",  IF(INT(G13/60)=G13/60, "", CONCATENATE(ROUND((G13/60-INT(G13/60) )*60,2),   "min")))), G13)</f>
+        <f t="shared" ref="H13:H24" si="2">IFERROR( IF(G13="","",CONCATENATE(       IF(INT(G13/60)=0,          "", CONCATENATE(INT(G13/60),"h") ), " ",  IF(INT(G13/60)=G13/60, "", CONCATENATE(ROUND((G13/60-INT(G13/60) )*60,2),   "min")))), G13)</f>
         <v>1h 5min</v>
       </c>
     </row>
@@ -978,13 +978,28 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G22" s="5" t="str">
+      <c r="A22" s="12">
+        <v>45581</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v/>
+        <v>120</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">2h </v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -998,23 +1013,47 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="5" t="str">
+      <c r="A24" s="12">
+        <v>45587</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1h 25min</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>45588</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
